--- a/Excel/Equipment-装备配置.xlsx
+++ b/Excel/Equipment-装备配置.xlsx
@@ -1683,7 +1683,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1976,7 +1976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:18">
+    <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="3">
         <v>100001</v>
       </c>
@@ -1991,45 +1991,6 @@
       </c>
       <c r="E7" s="3">
         <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:3">

--- a/Excel/Equipment-装备配置.xlsx
+++ b/Excel/Equipment-装备配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>?double</t>
+    <t>?number</t>
   </si>
   <si>
     <t>树枝</t>
@@ -1683,29 +1683,29 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.175" customWidth="1"/>
-    <col min="2" max="2" width="9.84166666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.5083333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.175" customWidth="1"/>
-    <col min="5" max="6" width="11.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.3416666666667" customWidth="1"/>
-    <col min="8" max="8" width="14.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="21.675" customWidth="1"/>
-    <col min="11" max="12" width="11.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="23.0083333333333" customWidth="1"/>
-    <col min="14" max="14" width="25.3416666666667" customWidth="1"/>
-    <col min="15" max="15" width="13.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.3416666666667" customWidth="1"/>
-    <col min="17" max="17" width="23.5083333333333" customWidth="1"/>
-    <col min="18" max="18" width="17.5083333333333" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
-    <col min="24" max="24" width="19.05" customWidth="1"/>
+    <col min="1" max="1" width="11.1759259259259" customWidth="1"/>
+    <col min="2" max="2" width="9.84259259259259" customWidth="1"/>
+    <col min="3" max="3" width="12.5092592592593" customWidth="1"/>
+    <col min="4" max="4" width="15.1759259259259" customWidth="1"/>
+    <col min="5" max="6" width="11.3425925925926" customWidth="1"/>
+    <col min="7" max="7" width="13.3425925925926" customWidth="1"/>
+    <col min="8" max="8" width="14.5092592592593" customWidth="1"/>
+    <col min="9" max="9" width="11.3425925925926" customWidth="1"/>
+    <col min="10" max="10" width="21.6759259259259" customWidth="1"/>
+    <col min="11" max="12" width="11.3425925925926" customWidth="1"/>
+    <col min="13" max="13" width="23.0092592592593" customWidth="1"/>
+    <col min="14" max="14" width="25.3425925925926" customWidth="1"/>
+    <col min="15" max="15" width="13.5092592592593" customWidth="1"/>
+    <col min="16" max="16" width="15.3425925925926" customWidth="1"/>
+    <col min="17" max="17" width="23.5092592592593" customWidth="1"/>
+    <col min="18" max="18" width="17.5092592592593" customWidth="1"/>
+    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
+    <col min="24" max="24" width="19.0462962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:18">
@@ -1984,13 +1984,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="2:3">

--- a/Excel/Equipment-装备配置.xlsx
+++ b/Excel/Equipment-装备配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="24015" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="1" r:id="rId1"/>
@@ -1683,29 +1683,29 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.1759259259259" customWidth="1"/>
-    <col min="2" max="2" width="9.84259259259259" customWidth="1"/>
-    <col min="3" max="3" width="12.5092592592593" customWidth="1"/>
-    <col min="4" max="4" width="15.1759259259259" customWidth="1"/>
-    <col min="5" max="6" width="11.3425925925926" customWidth="1"/>
-    <col min="7" max="7" width="13.3425925925926" customWidth="1"/>
-    <col min="8" max="8" width="14.5092592592593" customWidth="1"/>
-    <col min="9" max="9" width="11.3425925925926" customWidth="1"/>
-    <col min="10" max="10" width="21.6759259259259" customWidth="1"/>
-    <col min="11" max="12" width="11.3425925925926" customWidth="1"/>
-    <col min="13" max="13" width="23.0092592592593" customWidth="1"/>
-    <col min="14" max="14" width="25.3425925925926" customWidth="1"/>
-    <col min="15" max="15" width="13.5092592592593" customWidth="1"/>
-    <col min="16" max="16" width="15.3425925925926" customWidth="1"/>
-    <col min="17" max="17" width="23.5092592592593" customWidth="1"/>
-    <col min="18" max="18" width="17.5092592592593" customWidth="1"/>
-    <col min="21" max="21" width="17.8611111111111" customWidth="1"/>
-    <col min="24" max="24" width="19.0462962962963" customWidth="1"/>
+    <col min="1" max="1" width="11.175" customWidth="1"/>
+    <col min="2" max="2" width="9.84166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.175" customWidth="1"/>
+    <col min="5" max="6" width="11.3416666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.5083333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.3416666666667" customWidth="1"/>
+    <col min="10" max="10" width="21.675" customWidth="1"/>
+    <col min="11" max="12" width="11.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="23.0083333333333" customWidth="1"/>
+    <col min="14" max="14" width="25.3416666666667" customWidth="1"/>
+    <col min="15" max="15" width="13.5083333333333" customWidth="1"/>
+    <col min="16" max="16" width="15.3416666666667" customWidth="1"/>
+    <col min="17" max="17" width="23.5083333333333" customWidth="1"/>
+    <col min="18" max="18" width="17.5083333333333" customWidth="1"/>
+    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
+    <col min="24" max="24" width="19.05" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:18">

--- a/Excel/Equipment-装备配置.xlsx
+++ b/Excel/Equipment-装备配置.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24015" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="equipments" sheetId="1" r:id="rId1"/>
+    <sheet name="Equipments" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>导出类型</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Strength</t>
@@ -89,6 +89,12 @@
     <t>ColliderRadius</t>
   </si>
   <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
     <t>id唯一</t>
   </si>
   <si>
@@ -143,6 +149,12 @@
     <t>碰撞体积半径</t>
   </si>
   <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -153,6 +165,9 @@
   </si>
   <si>
     <t>?number</t>
+  </si>
+  <si>
+    <t>?number[]</t>
   </si>
   <si>
     <t>树枝</t>
@@ -1680,10 +1695,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1704,6 +1719,7 @@
     <col min="16" max="16" width="15.3416666666667" customWidth="1"/>
     <col min="17" max="17" width="23.5083333333333" customWidth="1"/>
     <col min="18" max="18" width="17.5083333333333" customWidth="1"/>
+    <col min="20" max="20" width="13.0833333333333" customWidth="1"/>
     <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
     <col min="24" max="24" width="19.05" customWidth="1"/>
   </cols>
@@ -1752,7 +1768,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:18">
+    <row r="3" ht="22.5" customHeight="1" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1807,181 +1823,205 @@
       <c r="R3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="S3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:18">
+    <row r="4" ht="22.5" customHeight="1" spans="1:20">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:18">
+    <row r="5" ht="22.5" customHeight="1" spans="1:20">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:18">
+    <row r="6" ht="22.5" customHeight="1" spans="1:20">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:5">
+    <row r="7" ht="22.5" customHeight="1" spans="1:20">
       <c r="A7" s="3">
         <v>100001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3">
         <v>10000</v>
@@ -1992,6 +2032,10 @@
       <c r="E7" s="3">
         <v>10000</v>
       </c>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" ht="16.5" spans="20:20">
+      <c r="T8" s="3"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="9"/>
@@ -1999,151 +2043,167 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
     <cfRule type="duplicateValues" dxfId="0" priority="127"/>
     <cfRule type="duplicateValues" dxfId="1" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
     <cfRule type="duplicateValues" dxfId="1" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Equipment-装备配置.xlsx
+++ b/Excel/Equipment-装备配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Equipments" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>Armor</t>
   </si>
   <si>
-    <t>MagicResistance</t>
+    <t>ItemMagicResistance</t>
   </si>
   <si>
     <t>Hp</t>
@@ -122,7 +122,7 @@
     <t>护甲</t>
   </si>
   <si>
-    <t>魔法抗性</t>
+    <t>物品魔法抗性</t>
   </si>
   <si>
     <t>血量</t>
@@ -1697,8 +1697,8 @@
   <sheetPr/>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/Equipment-装备配置.xlsx
+++ b/Excel/Equipment-装备配置.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>导出类型</t>
   </si>
@@ -65,6 +65,9 @@
     <t>ItemMagicResistance</t>
   </si>
   <si>
+    <t>ItemMiss</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>物品魔法抗性</t>
   </si>
   <si>
+    <t>物品提供闪避</t>
+  </si>
+  <si>
     <t>血量</t>
   </si>
   <si>
@@ -156,6 +162,9 @@
   </si>
   <si>
     <t>sc</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>number</t>
@@ -1695,10 +1704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1712,19 +1721,19 @@
     <col min="8" max="8" width="14.5083333333333" customWidth="1"/>
     <col min="9" max="9" width="11.3416666666667" customWidth="1"/>
     <col min="10" max="10" width="21.675" customWidth="1"/>
-    <col min="11" max="12" width="11.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="23.0083333333333" customWidth="1"/>
-    <col min="14" max="14" width="25.3416666666667" customWidth="1"/>
-    <col min="15" max="15" width="13.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.3416666666667" customWidth="1"/>
-    <col min="17" max="17" width="23.5083333333333" customWidth="1"/>
-    <col min="18" max="18" width="17.5083333333333" customWidth="1"/>
-    <col min="20" max="20" width="13.0833333333333" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
-    <col min="24" max="24" width="19.05" customWidth="1"/>
+    <col min="11" max="13" width="11.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="23.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="25.3416666666667" customWidth="1"/>
+    <col min="16" max="16" width="13.5083333333333" customWidth="1"/>
+    <col min="17" max="17" width="15.3416666666667" customWidth="1"/>
+    <col min="18" max="18" width="23.5083333333333" customWidth="1"/>
+    <col min="19" max="19" width="17.5083333333333" customWidth="1"/>
+    <col min="21" max="21" width="13.0833333333333" customWidth="1"/>
+    <col min="22" max="22" width="17.8583333333333" customWidth="1"/>
+    <col min="25" max="25" width="19.05" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:18">
+    <row r="1" ht="22.5" customHeight="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1747,8 +1756,9 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:18">
+    <row r="2" ht="18.5" customHeight="1" spans="1:19">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1767,8 +1777,9 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:20">
+    <row r="3" ht="22.5" customHeight="1" spans="1:21">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1829,199 +1840,211 @@
       <c r="T3" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="U3" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:20">
+    <row r="4" ht="22.5" customHeight="1" spans="1:21">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:20">
+    <row r="5" ht="22.5" customHeight="1" spans="1:21">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:20">
+    <row r="6" ht="22.5" customHeight="1" spans="1:21">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:20">
+    <row r="7" ht="22.5" customHeight="1" spans="1:21">
       <c r="A7" s="3">
         <v>100001</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3">
         <v>10000</v>
@@ -2032,10 +2055,10 @@
       <c r="E7" s="3">
         <v>10000</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="20:20">
-      <c r="T8" s="3"/>
+    <row r="8" ht="16.5" spans="21:21">
+      <c r="U8" s="3"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="9"/>
@@ -2043,167 +2066,175 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="0" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
     <cfRule type="duplicateValues" dxfId="0" priority="127"/>
     <cfRule type="duplicateValues" dxfId="1" priority="128"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="E3">
     <cfRule type="duplicateValues" dxfId="0" priority="123"/>
     <cfRule type="duplicateValues" dxfId="1" priority="124"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
     <cfRule type="duplicateValues" dxfId="0" priority="99"/>
     <cfRule type="duplicateValues" dxfId="1" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
     <cfRule type="duplicateValues" dxfId="0" priority="63"/>
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
+  <conditionalFormatting sqref="P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="duplicateValues" dxfId="0" priority="59"/>
     <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
     <cfRule type="duplicateValues" dxfId="0" priority="101"/>
     <cfRule type="duplicateValues" dxfId="1" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
     <cfRule type="duplicateValues" dxfId="0" priority="47"/>
     <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
     <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
